--- a/2024 times/2024 times.xlsx
+++ b/2024 times/2024 times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghayur Haider\Desktop\AZ\Git\Salaah\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muntazireen\Documents\Tech Drive\Salaah\2024 times\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE366C8C-4FF6-473E-8316-64DDEDC9D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9EA62E-9283-478E-ADD9-71041D30C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E3604271-BC7A-4B5D-92F1-F8D2EF6B1113}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3604271-BC7A-4B5D-92F1-F8D2EF6B1113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,20 +661,22 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G367"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -697,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>45292</v>
       </c>
@@ -720,7 +722,7 @@
         <v>0.98541666666666672</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>45293</v>
       </c>
@@ -743,7 +745,7 @@
         <v>0.98611111111111116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>45294</v>
       </c>
@@ -766,7 +768,7 @@
         <v>0.98611111111111116</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>45295</v>
       </c>
@@ -789,7 +791,7 @@
         <v>0.9868055555555556</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>45296</v>
       </c>
@@ -812,7 +814,7 @@
         <v>0.9868055555555556</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>45297</v>
       </c>
@@ -835,7 +837,7 @@
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>45298</v>
       </c>
@@ -858,7 +860,7 @@
         <v>0.98750000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>45299</v>
       </c>
@@ -881,7 +883,7 @@
         <v>0.98819444444444449</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>45300</v>
       </c>
@@ -904,7 +906,7 @@
         <v>0.98819444444444449</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>45301</v>
       </c>
@@ -927,7 +929,7 @@
         <v>0.98888888888888893</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>45302</v>
       </c>
@@ -950,7 +952,7 @@
         <v>0.98888888888888893</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>45303</v>
       </c>
@@ -973,7 +975,7 @@
         <v>0.98958333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>45304</v>
       </c>
@@ -996,7 +998,7 @@
         <v>0.98958333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>45305</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>0.99027777777777781</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>45306</v>
       </c>
@@ -1042,7 +1044,7 @@
         <v>0.99027777777777781</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>45307</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>0.99027777777777781</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>45308</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>0.99097222222222225</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>45309</v>
       </c>
@@ -1111,7 +1113,7 @@
         <v>0.99097222222222225</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>45310</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>0.9916666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>45311</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>0.9916666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>45312</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>0.9916666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>45313</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>0.99236111111111114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>45314</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>0.99236111111111114</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>45315</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>0.99236111111111114</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>45316</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>0.99305555555555558</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>45317</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>0.99305555555555558</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>45318</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>0.99305555555555558</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>45319</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>45320</v>
       </c>
@@ -1364,7 +1366,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>45321</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>45322</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>45323</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>45324</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>45325</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>45326</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>45327</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>45328</v>
       </c>
@@ -1548,7 +1550,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>45329</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>45330</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>45331</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>45332</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>45333</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>45334</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>45335</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45336</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>45337</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>45338</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>45339</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>45340</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>45341</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>45342</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>45343</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>45344</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>45345</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>45346</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>45347</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>45348</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>45349</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>0.99513888888888891</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>45350</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>45351</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>45352</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>45353</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>45354</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>45355</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>0.99444444444444446</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>45356</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>45357</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>45358</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>45359</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>0.99375000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>45360</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>0.99305555555555558</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>45361</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>45362</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>45363</v>
       </c>
@@ -2353,7 +2355,7 @@
         <v>3.4027777777777775E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>45364</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>3.4027777777777775E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>45365</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>3.4027777777777775E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>45366</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>45367</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>45368</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>45369</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>45370</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>45371</v>
       </c>
@@ -2537,7 +2539,7 @@
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>45372</v>
       </c>
@@ -2560,7 +2562,7 @@
         <v>3.1944444444444442E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>45373</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>3.1944444444444442E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>45374</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>3.1944444444444442E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>45375</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>45376</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>45377</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>45378</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>45379</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>45380</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>45381</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>45382</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>2.9861111111111113E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>45383</v>
       </c>
@@ -2813,7 +2815,7 @@
         <v>2.9166666666666667E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>45384</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>2.9166666666666667E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>45385</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>45386</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>45387</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>45388</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>45389</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>45390</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>45391</v>
       </c>
@@ -2997,7 +2999,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>45392</v>
       </c>
@@ -3020,7 +3022,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>45393</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>45394</v>
       </c>
@@ -3066,7 +3068,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>45395</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>45396</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>45397</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>45398</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>45399</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>45400</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>45401</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>45402</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>45403</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>45404</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>45405</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>45406</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>45407</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>45408</v>
       </c>
@@ -3388,7 +3390,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>45409</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>45410</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>45411</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>45412</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>45413</v>
       </c>
@@ -3503,7 +3505,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="17">
         <v>45414</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="17">
         <v>45415</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="17">
         <v>45416</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17">
         <v>45417</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="17">
         <v>45418</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17">
         <v>45419</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="17">
         <v>45420</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17">
         <v>45421</v>
       </c>
@@ -3687,7 +3689,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="17">
         <v>45422</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="17">
         <v>45423</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="17">
         <v>45424</v>
       </c>
@@ -3756,7 +3758,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="17">
         <v>45425</v>
       </c>
@@ -3779,7 +3781,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="17">
         <v>45426</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="17">
         <v>45427</v>
       </c>
@@ -3825,7 +3827,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="17">
         <v>45428</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17">
         <v>45429</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="17">
         <v>45430</v>
       </c>
@@ -3894,7 +3896,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="17">
         <v>45431</v>
       </c>
@@ -3917,7 +3919,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="17">
         <v>45432</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17">
         <v>45433</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17">
         <v>45434</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17">
         <v>45435</v>
       </c>
@@ -4009,7 +4011,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
         <v>45436</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
         <v>45437</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
         <v>45438</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
         <v>45439</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
         <v>45440</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>45441</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>45442</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
         <v>45443</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
         <v>45444</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
         <v>45445</v>
       </c>
@@ -4239,7 +4241,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
         <v>45446</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
         <v>45447</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
         <v>45448</v>
       </c>
@@ -4308,7 +4310,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>45449</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
         <v>45450</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
         <v>45451</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
         <v>45452</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
         <v>45453</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
         <v>45454</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
         <v>45455</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
         <v>45456</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
         <v>45457</v>
       </c>
@@ -4515,7 +4517,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>45458</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
         <v>45459</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
         <v>45460</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
         <v>45461</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
         <v>45462</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
         <v>45463</v>
       </c>
@@ -4653,7 +4655,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
         <v>45464</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
         <v>45465</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
         <v>45466</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
         <v>45467</v>
       </c>
@@ -4745,7 +4747,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
         <v>45468</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
         <v>45469</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
         <v>45470</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>45471</v>
       </c>
@@ -4837,7 +4839,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="17">
         <v>45472</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
         <v>45473</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
         <v>45474</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
         <v>45475</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
         <v>45476</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
         <v>45477</v>
       </c>
@@ -4975,7 +4977,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="17">
         <v>45478</v>
       </c>
@@ -4998,7 +5000,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="17">
         <v>45479</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
         <v>45480</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="17">
         <v>45481</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="17">
         <v>45482</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="17">
         <v>45483</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="17">
         <v>45484</v>
       </c>
@@ -5136,7 +5138,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="17">
         <v>45485</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="17">
         <v>45486</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17">
         <v>45487</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="17">
         <v>45488</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="17">
         <v>45489</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="17">
         <v>45490</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="17">
         <v>45491</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="17">
         <v>45492</v>
       </c>
@@ -5320,7 +5322,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
         <v>45493</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="17">
         <v>45494</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="17">
         <v>45495</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="17">
         <v>45496</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="17">
         <v>45497</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="17">
         <v>45498</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="17">
         <v>45499</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="17">
         <v>45500</v>
       </c>
@@ -5504,7 +5506,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="17">
         <v>45501</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="17">
         <v>45502</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="17">
         <v>45503</v>
       </c>
@@ -5573,7 +5575,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="17">
         <v>45504</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="17">
         <v>45505</v>
       </c>
@@ -5619,7 +5621,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="17">
         <v>45506</v>
       </c>
@@ -5642,7 +5644,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="17">
         <v>45507</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="17">
         <v>45508</v>
       </c>
@@ -5688,7 +5690,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="17">
         <v>45509</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="17">
         <v>45510</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="17">
         <v>45511</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="17">
         <v>45512</v>
       </c>
@@ -5780,7 +5782,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="17">
         <v>45513</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="17">
         <v>45514</v>
       </c>
@@ -5826,7 +5828,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="17">
         <v>45515</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="17">
         <v>45516</v>
       </c>
@@ -5872,7 +5874,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="17">
         <v>45517</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
         <v>45518</v>
       </c>
@@ -5918,7 +5920,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="17">
         <v>45519</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="17">
         <v>45520</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="17">
         <v>45521</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="17">
         <v>45522</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="17">
         <v>45523</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="17">
         <v>45524</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="17">
         <v>45525</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>2.6388888888888889E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="17">
         <v>45526</v>
       </c>
@@ -6102,7 +6104,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="17">
         <v>45527</v>
       </c>
@@ -6125,7 +6127,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="17">
         <v>45528</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="17">
         <v>45529</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="17">
         <v>45530</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="17">
         <v>45531</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="17">
         <v>45532</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="17">
         <v>45533</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="17">
         <v>45534</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>2.5694444444444443E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="17">
         <v>45535</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="17">
         <v>45536</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="17">
         <v>45537</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="17">
         <v>45538</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="17">
         <v>45539</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="17">
         <v>45540</v>
       </c>
@@ -6424,7 +6426,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="17">
         <v>45541</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="17">
         <v>45542</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="17">
         <v>45543</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="17">
         <v>45544</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>2.4305555555555556E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="17">
         <v>45545</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="17">
         <v>45546</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="17">
         <v>45547</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="17">
         <v>45548</v>
       </c>
@@ -6608,7 +6610,7 @@
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="17">
         <v>45549</v>
       </c>
@@ -6631,7 +6633,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="17">
         <v>45550</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="17">
         <v>45551</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="17">
         <v>45552</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>2.2916666666666665E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="17">
         <v>45553</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="17">
         <v>45554</v>
       </c>
@@ -6746,7 +6748,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="17">
         <v>45555</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="17">
         <v>45556</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="17">
         <v>45557</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="17">
         <v>45558</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="17">
         <v>45559</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>2.1527777777777778E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="17">
         <v>45560</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="17">
         <v>45561</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="17">
         <v>45562</v>
       </c>
@@ -6930,7 +6932,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="17">
         <v>45563</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="17">
         <v>45564</v>
       </c>
@@ -6976,7 +6978,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="17">
         <v>45565</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="17">
         <v>45566</v>
       </c>
@@ -7022,7 +7024,7 @@
         <v>2.013888888888889E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="17">
         <v>45567</v>
       </c>
@@ -7045,7 +7047,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="17">
         <v>45568</v>
       </c>
@@ -7068,7 +7070,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="17">
         <v>45569</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="17">
         <v>45570</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="17">
         <v>45571</v>
       </c>
@@ -7137,7 +7139,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="17">
         <v>45572</v>
       </c>
@@ -7160,7 +7162,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="17">
         <v>45573</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="17">
         <v>45574</v>
       </c>
@@ -7206,7 +7208,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="17">
         <v>45575</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="17">
         <v>45576</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>1.8055555555555554E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="17">
         <v>45577</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="17">
         <v>45578</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="17">
         <v>45579</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="17">
         <v>45580</v>
       </c>
@@ -7344,7 +7346,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="17">
         <v>45581</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="17">
         <v>45582</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="17">
         <v>45583</v>
       </c>
@@ -7413,7 +7415,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="17">
         <v>45584</v>
       </c>
@@ -7436,7 +7438,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="17">
         <v>45585</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="17">
         <v>45586</v>
       </c>
@@ -7482,7 +7484,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="17">
         <v>45587</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="17">
         <v>45588</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="17">
         <v>45589</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="17">
         <v>45590</v>
       </c>
@@ -7574,7 +7576,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="17">
         <v>45591</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>1.5972222222222221E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="17">
         <v>45592</v>
       </c>
@@ -7620,7 +7622,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="17">
         <v>45593</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="17">
         <v>45594</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="17">
         <v>45595</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="17">
         <v>45596</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="17">
         <v>45597</v>
       </c>
@@ -7735,7 +7737,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="17">
         <v>45598</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="17">
         <v>45599</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="17">
         <v>45600</v>
       </c>
@@ -7804,7 +7806,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="17">
         <v>45601</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="17">
         <v>45602</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="17">
         <v>45603</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="17">
         <v>45604</v>
       </c>
@@ -7896,7 +7898,7 @@
         <v>0.97291666666666665</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="17">
         <v>45605</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="17">
         <v>45606</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="17">
         <v>45607</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="17">
         <v>45608</v>
       </c>
@@ -7988,7 +7990,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="17">
         <v>45609</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="17">
         <v>45610</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="17">
         <v>45611</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="17">
         <v>45612</v>
       </c>
@@ -8080,7 +8082,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="17">
         <v>45613</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="17">
         <v>45614</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="17">
         <v>45615</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>0.97361111111111109</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="17">
         <v>45616</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="17">
         <v>45617</v>
       </c>
@@ -8195,7 +8197,7 @@
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="17">
         <v>45618</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="17">
         <v>45619</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="17">
         <v>45620</v>
       </c>
@@ -8264,7 +8266,7 @@
         <v>0.97430555555555554</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="17">
         <v>45621</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="17">
         <v>45622</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="17">
         <v>45623</v>
       </c>
@@ -8333,7 +8335,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="17">
         <v>45624</v>
       </c>
@@ -8356,7 +8358,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="17">
         <v>45625</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>0.97569444444444442</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="17">
         <v>45626</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>0.97569444444444442</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="17">
         <v>45627</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>0.97569444444444442</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="17">
         <v>45628</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="17">
         <v>45629</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="17">
         <v>45630</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>0.97638888888888886</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="17">
         <v>45631</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>0.9770833333333333</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="17">
         <v>45632</v>
       </c>
@@ -8540,7 +8542,7 @@
         <v>0.9770833333333333</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="17">
         <v>45633</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>0.9770833333333333</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="17">
         <v>45634</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="17">
         <v>45635</v>
       </c>
@@ -8609,7 +8611,7 @@
         <v>0.97777777777777775</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="17">
         <v>45636</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>0.97847222222222219</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="17">
         <v>45637</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>0.97847222222222219</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="17">
         <v>45638</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>0.97847222222222219</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="17">
         <v>45639</v>
       </c>
@@ -8701,7 +8703,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="17">
         <v>45640</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="17">
         <v>45641</v>
       </c>
@@ -8747,7 +8749,7 @@
         <v>0.97986111111111107</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="17">
         <v>45642</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>0.97986111111111107</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="17">
         <v>45643</v>
       </c>
@@ -8793,7 +8795,7 @@
         <v>0.98055555555555551</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="17">
         <v>45644</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>0.98055555555555551</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="17">
         <v>45645</v>
       </c>
@@ -8839,7 +8841,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="17">
         <v>45646</v>
       </c>
@@ -8862,7 +8864,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="17">
         <v>45647</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="17">
         <v>45648</v>
       </c>
@@ -8908,7 +8910,7 @@
         <v>0.9819444444444444</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="17">
         <v>45649</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>0.98263888888888884</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="17">
         <v>45650</v>
       </c>
@@ -8954,7 +8956,7 @@
         <v>0.98263888888888884</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="17">
         <v>45651</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>0.98333333333333328</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="17">
         <v>45652</v>
       </c>
@@ -9000,7 +9002,7 @@
         <v>0.98333333333333328</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="17">
         <v>45653</v>
       </c>
@@ -9023,7 +9025,7 @@
         <v>0.98402777777777772</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="17">
         <v>45654</v>
       </c>
@@ -9046,7 +9048,7 @@
         <v>0.98402777777777772</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="17">
         <v>45655</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>0.98472222222222228</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="17">
         <v>45656</v>
       </c>
@@ -9092,7 +9094,7 @@
         <v>0.98472222222222228</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="17">
         <v>45657</v>
       </c>
@@ -9118,7 +9120,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="135" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="170" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="11" manualBreakCount="11">
     <brk id="32" max="16383" man="1"/>
     <brk id="61" max="16383" man="1"/>
